--- a/testing/testSuite/src/main/resources/TestGLINTExtract/testUKGAAP/SeedData.xlsx
+++ b/testing/testSuite/src/main/resources/TestGLINTExtract/testUKGAAP/SeedData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BE0718-351D-4E54-9AA6-C3547C215275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12645" tabRatio="774"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="774" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feed" sheetId="1" r:id="rId1"/>
@@ -23,17 +24,25 @@
     <sheet name="journal_line" sheetId="3" r:id="rId14"/>
     <sheet name="fr_general_lookup" sheetId="29" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="456">
   <si>
     <t>N</t>
   </si>
@@ -1398,13 +1407,16 @@
   </si>
   <si>
     <t>MADJBDPPE</t>
+  </si>
+  <si>
+    <t>IS_STANDALONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1431,6 +1443,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1462,7 +1481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1549,6 +1568,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1863,10 +1883,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
@@ -2102,7 +2122,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:F9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F9">
     <sortCondition ref="A4:A9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2111,7 +2131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -3535,7 +3555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3767,7 +3787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3908,7 +3928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4126,7 +4146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" workbookViewId="0">
@@ -6073,7 +6093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6797,7 +6817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7043,7 +7063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7365,7 +7385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7677,12 +7697,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41:G291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7693,12 +7713,13 @@
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -7718,16 +7739,19 @@
         <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>362</v>
       </c>
@@ -7753,10 +7777,13 @@
         <v>56</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7784,8 +7811,11 @@
       <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>1</v>
       </c>
@@ -7804,17 +7834,20 @@
       <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s">
-        <v>0</v>
+      <c r="G4" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -7833,17 +7866,20 @@
       <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s">
-        <v>0</v>
+      <c r="G5" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <v>3</v>
       </c>
@@ -7862,17 +7898,20 @@
       <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="G6" t="s">
-        <v>0</v>
+      <c r="G6" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -7891,17 +7930,20 @@
       <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" t="s">
-        <v>0</v>
+      <c r="G7" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <v>5</v>
       </c>
@@ -7920,17 +7962,20 @@
       <c r="F8" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s">
-        <v>0</v>
+      <c r="G8" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <v>6</v>
       </c>
@@ -7949,17 +7994,20 @@
       <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
-        <v>0</v>
+      <c r="G9" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <v>7</v>
       </c>
@@ -7978,17 +8026,20 @@
       <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="G10" t="s">
-        <v>0</v>
+      <c r="G10" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <v>8</v>
       </c>
@@ -8007,17 +8058,20 @@
       <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s">
-        <v>0</v>
+      <c r="G11" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <v>9</v>
       </c>
@@ -8036,17 +8090,20 @@
       <c r="F12" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
-        <v>0</v>
+      <c r="G12" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <v>10</v>
       </c>
@@ -8065,17 +8122,20 @@
       <c r="F13" t="s">
         <v>57</v>
       </c>
-      <c r="G13" t="s">
-        <v>0</v>
+      <c r="G13" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <v>11</v>
       </c>
@@ -8094,17 +8154,20 @@
       <c r="F14" t="s">
         <v>57</v>
       </c>
-      <c r="G14" t="s">
-        <v>0</v>
+      <c r="G14" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H14" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>12</v>
       </c>
@@ -8123,17 +8186,20 @@
       <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
-        <v>0</v>
+      <c r="G15" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H15" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>13</v>
       </c>
@@ -8152,17 +8218,20 @@
       <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="G16" t="s">
-        <v>0</v>
+      <c r="G16" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H16" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>14</v>
       </c>
@@ -8181,17 +8250,20 @@
       <c r="F17" t="s">
         <v>57</v>
       </c>
-      <c r="G17" t="s">
-        <v>0</v>
+      <c r="G17" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H17" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>15</v>
       </c>
@@ -8210,17 +8282,20 @@
       <c r="F18" t="s">
         <v>57</v>
       </c>
-      <c r="G18" t="s">
-        <v>0</v>
+      <c r="G18" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H18" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
         <v>101</v>
       </c>
@@ -8239,17 +8314,20 @@
       <c r="F19" t="s">
         <v>57</v>
       </c>
-      <c r="G19" t="s">
-        <v>0</v>
+      <c r="G19" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>102</v>
       </c>
@@ -8268,17 +8346,20 @@
       <c r="F20" t="s">
         <v>57</v>
       </c>
-      <c r="G20" t="s">
-        <v>0</v>
+      <c r="G20" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H20" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>103</v>
       </c>
@@ -8297,17 +8378,20 @@
       <c r="F21" t="s">
         <v>57</v>
       </c>
-      <c r="G21" t="s">
-        <v>0</v>
+      <c r="G21" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H21" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <v>104</v>
       </c>
@@ -8326,17 +8410,20 @@
       <c r="F22" t="s">
         <v>57</v>
       </c>
-      <c r="G22" t="s">
-        <v>0</v>
+      <c r="G22" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H22" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>105</v>
       </c>
@@ -8355,17 +8442,20 @@
       <c r="F23" t="s">
         <v>57</v>
       </c>
-      <c r="G23" t="s">
-        <v>0</v>
+      <c r="G23" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H23" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>106</v>
       </c>
@@ -8384,17 +8474,20 @@
       <c r="F24" t="s">
         <v>57</v>
       </c>
-      <c r="G24" t="s">
-        <v>0</v>
+      <c r="G24" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H24" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>107</v>
       </c>
@@ -8413,17 +8506,20 @@
       <c r="F25" t="s">
         <v>57</v>
       </c>
-      <c r="G25" t="s">
-        <v>0</v>
+      <c r="G25" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H25" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>108</v>
       </c>
@@ -8442,17 +8538,20 @@
       <c r="F26" t="s">
         <v>57</v>
       </c>
-      <c r="G26" t="s">
-        <v>0</v>
+      <c r="G26" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H26" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>109</v>
       </c>
@@ -8471,17 +8570,20 @@
       <c r="F27" t="s">
         <v>57</v>
       </c>
-      <c r="G27" t="s">
-        <v>0</v>
+      <c r="G27" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H27" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
         <v>110</v>
       </c>
@@ -8500,17 +8602,20 @@
       <c r="F28" t="s">
         <v>57</v>
       </c>
-      <c r="G28" t="s">
-        <v>0</v>
+      <c r="G28" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H28" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
         <v>201</v>
       </c>
@@ -8529,17 +8634,20 @@
       <c r="F29" t="s">
         <v>57</v>
       </c>
-      <c r="G29" t="s">
-        <v>0</v>
+      <c r="G29" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H29" t="s">
         <v>0</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
         <v>202</v>
       </c>
@@ -8558,17 +8666,20 @@
       <c r="F30" t="s">
         <v>57</v>
       </c>
-      <c r="G30" t="s">
-        <v>0</v>
+      <c r="G30" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H30" t="s">
         <v>0</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
         <v>203</v>
       </c>
@@ -8587,17 +8698,20 @@
       <c r="F31" t="s">
         <v>57</v>
       </c>
-      <c r="G31" t="s">
-        <v>0</v>
+      <c r="G31" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H31" t="s">
         <v>0</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
         <v>204</v>
       </c>
@@ -8616,17 +8730,20 @@
       <c r="F32" t="s">
         <v>57</v>
       </c>
-      <c r="G32" t="s">
-        <v>0</v>
+      <c r="G32" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H32" t="s">
         <v>0</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <v>205</v>
       </c>
@@ -8645,17 +8762,20 @@
       <c r="F33" t="s">
         <v>57</v>
       </c>
-      <c r="G33" t="s">
-        <v>0</v>
+      <c r="G33" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H33" t="s">
         <v>0</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>206</v>
       </c>
@@ -8674,17 +8794,20 @@
       <c r="F34" t="s">
         <v>57</v>
       </c>
-      <c r="G34" t="s">
-        <v>0</v>
+      <c r="G34" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H34" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
         <v>207</v>
       </c>
@@ -8703,17 +8826,20 @@
       <c r="F35" t="s">
         <v>57</v>
       </c>
-      <c r="G35" t="s">
-        <v>0</v>
+      <c r="G35" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H35" t="s">
         <v>0</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
         <v>208</v>
       </c>
@@ -8732,17 +8858,20 @@
       <c r="F36" t="s">
         <v>57</v>
       </c>
-      <c r="G36" t="s">
-        <v>0</v>
+      <c r="G36" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H36" t="s">
         <v>0</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
         <v>209</v>
       </c>
@@ -8761,17 +8890,20 @@
       <c r="F37" t="s">
         <v>57</v>
       </c>
-      <c r="G37" t="s">
-        <v>0</v>
+      <c r="G37" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H37" t="s">
         <v>0</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
         <v>210</v>
       </c>
@@ -8790,17 +8922,20 @@
       <c r="F38" t="s">
         <v>57</v>
       </c>
-      <c r="G38" t="s">
-        <v>0</v>
+      <c r="G38" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H38" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="33">
         <v>211</v>
       </c>
@@ -8819,17 +8954,20 @@
       <c r="F39" t="s">
         <v>57</v>
       </c>
-      <c r="G39" t="s">
-        <v>0</v>
+      <c r="G39" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H39" t="s">
         <v>0</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
         <v>212</v>
       </c>
@@ -8848,13 +8986,16 @@
       <c r="F40" t="s">
         <v>57</v>
       </c>
-      <c r="G40" t="s">
-        <v>0</v>
+      <c r="G40" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="H40" t="s">
         <v>0</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -8864,7 +9005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9209,7 +9350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9362,7 +9503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9745,7 +9886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
